--- a/gap_result_1_F.xlsx
+++ b/gap_result_1_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002573630251771417</v>
+        <v>-0.0002223739588807921</v>
       </c>
       <c r="D2">
-        <v>0.9758464729921787</v>
+        <v>0.9788819006319258</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.003950343110151447</v>
+        <v>-0.0102817520878668</v>
       </c>
       <c r="D3">
-        <v>0.8751309942403799</v>
+        <v>0.6789947467165278</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.0002529451354049694</v>
+        <v>0.001452443013983007</v>
       </c>
       <c r="D4">
-        <v>0.9870719314146207</v>
+        <v>0.9249334969171943</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.02914503556501783</v>
+        <v>-0.00280593300913606</v>
       </c>
       <c r="D5">
-        <v>0.0543097864246038</v>
+        <v>0.8516542631238406</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>6.203760337560038E-08</v>
+        <v>0.001780380375891821</v>
       </c>
       <c r="D6">
-        <v>0.9999960979890589</v>
+        <v>0.8870360691354916</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_F.xlsx
+++ b/gap_result_1_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002223739588807921</v>
+        <v>-0.0004802948610975744</v>
       </c>
       <c r="D2">
-        <v>0.9788819006319258</v>
+        <v>0.9535290982463552</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0102817520878668</v>
+        <v>-0.008121561712845393</v>
       </c>
       <c r="D3">
-        <v>0.6789947467165278</v>
+        <v>0.7211757751875321</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001452443013983007</v>
+        <v>0.002328519606460706</v>
       </c>
       <c r="D4">
-        <v>0.9249334969171943</v>
+        <v>0.8763533448951009</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.00280593300913606</v>
+        <v>-0.002870106067497644</v>
       </c>
       <c r="D5">
-        <v>0.8516542631238406</v>
+        <v>0.8427763709699176</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001780380375891821</v>
+        <v>0.006553471091249374</v>
       </c>
       <c r="D6">
-        <v>0.8870360691354916</v>
+        <v>0.5845920304104504</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_F.xlsx
+++ b/gap_result_1_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004802948610975744</v>
+        <v>-5.759131267976669E-06</v>
       </c>
       <c r="D2">
-        <v>0.9535290982463552</v>
+        <v>0.999452773660819</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.008121561712845393</v>
+        <v>-0.01009399673874949</v>
       </c>
       <c r="D3">
-        <v>0.7211757751875321</v>
+        <v>0.684408204885093</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002328519606460706</v>
+        <v>0.001527723516822732</v>
       </c>
       <c r="D4">
-        <v>0.8763533448951009</v>
+        <v>0.9210210766828596</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.002870106067497644</v>
+        <v>-0.002746168480223726</v>
       </c>
       <c r="D5">
-        <v>0.8427763709699176</v>
+        <v>0.8547160713473175</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006553471091249374</v>
+        <v>0.001790670333210986</v>
       </c>
       <c r="D6">
-        <v>0.5845920304104504</v>
+        <v>0.886338656328752</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_1_F.xlsx
+++ b/gap_result_1_F.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-5.759131267976669E-06</v>
+        <v>-0.0004910382679864517</v>
       </c>
       <c r="D2">
-        <v>0.999452773660819</v>
+        <v>0.9534256284527137</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.01009399673874949</v>
+        <v>-0.01053578864191184</v>
       </c>
       <c r="D3">
-        <v>0.684408204885093</v>
+        <v>0.6717666934943087</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001527723516822732</v>
+        <v>0.001211457940440308</v>
       </c>
       <c r="D4">
-        <v>0.9210210766828596</v>
+        <v>0.9374094106412777</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.002746168480223726</v>
+        <v>-0.002996144360802779</v>
       </c>
       <c r="D5">
-        <v>0.8547160713473175</v>
+        <v>0.841850209225196</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001790670333210986</v>
+        <v>0.001761311773366225</v>
       </c>
       <c r="D6">
-        <v>0.886338656328752</v>
+        <v>0.8883255521492565</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
